--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.781160193893226</v>
+        <v>0.9134243333333334</v>
       </c>
       <c r="H2">
-        <v>0.781160193893226</v>
+        <v>2.740273</v>
       </c>
       <c r="I2">
-        <v>0.4912512240283951</v>
+        <v>0.4164467621298553</v>
       </c>
       <c r="J2">
-        <v>0.4912512240283951</v>
+        <v>0.4164467621298553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.95732916934272</v>
+        <v>1.977152666666667</v>
       </c>
       <c r="N2">
-        <v>1.95732916934272</v>
+        <v>5.931458</v>
       </c>
       <c r="O2">
-        <v>0.5711043789603084</v>
+        <v>0.5296093122610759</v>
       </c>
       <c r="P2">
-        <v>0.5711043789603084</v>
+        <v>0.5296093122610759</v>
       </c>
       <c r="Q2">
-        <v>1.528987633436626</v>
+        <v>1.805979356448222</v>
       </c>
       <c r="R2">
-        <v>1.528987633436626</v>
+        <v>16.253814208034</v>
       </c>
       <c r="S2">
-        <v>0.2805557252122279</v>
+        <v>0.2205540832849445</v>
       </c>
       <c r="T2">
-        <v>0.2805557252122279</v>
+        <v>0.2205540832849445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,57 +596,57 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.781160193893226</v>
+        <v>0.9134243333333334</v>
       </c>
       <c r="H3">
-        <v>0.781160193893226</v>
+        <v>2.740273</v>
       </c>
       <c r="I3">
-        <v>0.4912512240283951</v>
+        <v>0.4164467621298553</v>
       </c>
       <c r="J3">
-        <v>0.4912512240283951</v>
+        <v>0.4164467621298553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.46994129373099</v>
+        <v>1.561521333333333</v>
       </c>
       <c r="N3">
-        <v>1.46994129373099</v>
+        <v>4.684564</v>
       </c>
       <c r="O3">
-        <v>0.4288956210396915</v>
+        <v>0.4182763695339315</v>
       </c>
       <c r="P3">
-        <v>0.4288956210396915</v>
+        <v>0.4182763695339315</v>
       </c>
       <c r="Q3">
-        <v>1.148259626022559</v>
+        <v>1.426331582885778</v>
       </c>
       <c r="R3">
-        <v>1.148259626022559</v>
+        <v>12.836984245972</v>
       </c>
       <c r="S3">
-        <v>0.2106954988161671</v>
+        <v>0.1741898397678366</v>
       </c>
       <c r="T3">
-        <v>0.2106954988161671</v>
+        <v>0.1741898397678366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,60 +655,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.808983821397968</v>
+        <v>0.9134243333333334</v>
       </c>
       <c r="H4">
-        <v>0.808983821397968</v>
+        <v>2.740273</v>
       </c>
       <c r="I4">
-        <v>0.5087487759716049</v>
+        <v>0.4164467621298553</v>
       </c>
       <c r="J4">
-        <v>0.5087487759716049</v>
+        <v>0.4164467621298553</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.95732916934272</v>
+        <v>0.04091566666666666</v>
       </c>
       <c r="N4">
-        <v>1.95732916934272</v>
+        <v>0.122747</v>
       </c>
       <c r="O4">
-        <v>0.5711043789603084</v>
+        <v>0.01095986083895566</v>
       </c>
       <c r="P4">
-        <v>0.5711043789603084</v>
+        <v>0.01095986083895566</v>
       </c>
       <c r="Q4">
-        <v>1.583447631148584</v>
+        <v>0.03737336554788889</v>
       </c>
       <c r="R4">
-        <v>1.583447631148584</v>
+        <v>0.336360289931</v>
       </c>
       <c r="S4">
-        <v>0.2905486537480805</v>
+        <v>0.004564198559776885</v>
       </c>
       <c r="T4">
-        <v>0.2905486537480805</v>
+        <v>0.004564198559776885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +717,427 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9134243333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.740273</v>
+      </c>
+      <c r="I5">
+        <v>0.4164467621298553</v>
+      </c>
+      <c r="J5">
+        <v>0.4164467621298553</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1059233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.31777</v>
+      </c>
+      <c r="O5">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="P5">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="Q5">
+        <v>0.09675295013444445</v>
+      </c>
+      <c r="R5">
+        <v>0.8707765512100001</v>
+      </c>
+      <c r="S5">
+        <v>0.01181589266002673</v>
+      </c>
+      <c r="T5">
+        <v>0.01181589266002673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.808983821397968</v>
-      </c>
-      <c r="H5">
-        <v>0.808983821397968</v>
-      </c>
-      <c r="I5">
-        <v>0.5087487759716049</v>
-      </c>
-      <c r="J5">
-        <v>0.5087487759716049</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.46994129373099</v>
-      </c>
-      <c r="N5">
-        <v>1.46994129373099</v>
-      </c>
-      <c r="O5">
-        <v>0.4288956210396915</v>
-      </c>
-      <c r="P5">
-        <v>0.4288956210396915</v>
-      </c>
-      <c r="Q5">
-        <v>1.189158725033169</v>
-      </c>
-      <c r="R5">
-        <v>1.189158725033169</v>
-      </c>
-      <c r="S5">
-        <v>0.2182001222235244</v>
-      </c>
-      <c r="T5">
-        <v>0.2182001222235244</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9134243333333334</v>
+      </c>
+      <c r="H6">
+        <v>2.740273</v>
+      </c>
+      <c r="I6">
+        <v>0.4164467621298553</v>
+      </c>
+      <c r="J6">
+        <v>0.4164467621298553</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.04771566666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.143147</v>
+      </c>
+      <c r="O6">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="P6">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="Q6">
+        <v>0.04358465101455555</v>
+      </c>
+      <c r="R6">
+        <v>0.392261859131</v>
+      </c>
+      <c r="S6">
+        <v>0.005322747857270498</v>
+      </c>
+      <c r="T6">
+        <v>0.005322747857270497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.279951666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.839855</v>
+      </c>
+      <c r="I7">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="J7">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.977152666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.931458</v>
+      </c>
+      <c r="O7">
+        <v>0.5296093122610759</v>
+      </c>
+      <c r="P7">
+        <v>0.5296093122610759</v>
+      </c>
+      <c r="Q7">
+        <v>2.530659850954444</v>
+      </c>
+      <c r="R7">
+        <v>22.77593865859</v>
+      </c>
+      <c r="S7">
+        <v>0.3090552289761314</v>
+      </c>
+      <c r="T7">
+        <v>0.3090552289761314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.279951666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.839855</v>
+      </c>
+      <c r="I8">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="J8">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.561521333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.684564</v>
+      </c>
+      <c r="O8">
+        <v>0.4182763695339315</v>
+      </c>
+      <c r="P8">
+        <v>0.4182763695339315</v>
+      </c>
+      <c r="Q8">
+        <v>1.998671833135556</v>
+      </c>
+      <c r="R8">
+        <v>17.98804649822</v>
+      </c>
+      <c r="S8">
+        <v>0.2440865297660949</v>
+      </c>
+      <c r="T8">
+        <v>0.2440865297660949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.279951666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.839855</v>
+      </c>
+      <c r="I9">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="J9">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04091566666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.122747</v>
+      </c>
+      <c r="O9">
+        <v>0.01095986083895566</v>
+      </c>
+      <c r="P9">
+        <v>0.01095986083895566</v>
+      </c>
+      <c r="Q9">
+        <v>0.05237007574277777</v>
+      </c>
+      <c r="R9">
+        <v>0.471330681685</v>
+      </c>
+      <c r="S9">
+        <v>0.006395662279178778</v>
+      </c>
+      <c r="T9">
+        <v>0.006395662279178778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.279951666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.839855</v>
+      </c>
+      <c r="I10">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="J10">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1059233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.31777</v>
+      </c>
+      <c r="O10">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="P10">
+        <v>0.02837311688916993</v>
+      </c>
+      <c r="Q10">
+        <v>0.1355767470388889</v>
+      </c>
+      <c r="R10">
+        <v>1.22019072335</v>
+      </c>
+      <c r="S10">
+        <v>0.0165572242291432</v>
+      </c>
+      <c r="T10">
+        <v>0.0165572242291432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.279951666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.839855</v>
+      </c>
+      <c r="I11">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="J11">
+        <v>0.5835532378701448</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.04771566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.143147</v>
+      </c>
+      <c r="O11">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="P11">
+        <v>0.01278134047686694</v>
+      </c>
+      <c r="Q11">
+        <v>0.0610737470761111</v>
+      </c>
+      <c r="R11">
+        <v>0.5496637236849999</v>
+      </c>
+      <c r="S11">
+        <v>0.007458592619596443</v>
+      </c>
+      <c r="T11">
+        <v>0.007458592619596443</v>
       </c>
     </row>
   </sheetData>
